--- a/raw/1974election.xlsx
+++ b/raw/1974election.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/MyData/USvoting/historical voting/1920to1974/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945902EC-26A9-894C-A2B2-BD805C279DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B67809-1835-F64C-994F-DCBA887D5B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27840" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7404,8 +7404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1312"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="214" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="214" workbookViewId="0">
+      <selection activeCell="C43" sqref="C42:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -8346,7 +8346,7 @@
         <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>1342</v>
       </c>
       <c r="D42" t="s">
         <v>17</v>
@@ -8369,7 +8369,7 @@
         <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>1342</v>
       </c>
       <c r="D43" t="s">
         <v>17</v>
@@ -8392,7 +8392,7 @@
         <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>1342</v>
       </c>
       <c r="D44" t="s">
         <v>23</v>
@@ -8415,7 +8415,7 @@
         <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>1342</v>
       </c>
       <c r="D45" t="s">
         <v>23</v>
@@ -8438,7 +8438,7 @@
         <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>1342</v>
       </c>
       <c r="D46" t="s">
         <v>27</v>
@@ -8461,7 +8461,7 @@
         <v>73</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>1342</v>
       </c>
       <c r="D47" t="s">
         <v>27</v>
@@ -8484,7 +8484,7 @@
         <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>1342</v>
       </c>
       <c r="D48" t="s">
         <v>30</v>

--- a/raw/1974election.xlsx
+++ b/raw/1974election.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/MyData/USvoting/historical voting/1920to1974/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B67809-1835-F64C-994F-DCBA887D5B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D30F345-4135-004E-8E29-9416BF1E1A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27840" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6840" uniqueCount="2076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6838" uniqueCount="2076">
   <si>
     <t>State</t>
   </si>
@@ -7404,8 +7404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="214" workbookViewId="0">
-      <selection activeCell="C43" sqref="C42:C48"/>
+    <sheetView tabSelected="1" topLeftCell="A975" zoomScale="214" workbookViewId="0">
+      <selection activeCell="F986" sqref="F986"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -16105,8 +16105,8 @@
       <c r="C385" t="s">
         <v>14</v>
       </c>
-      <c r="D385" t="s">
-        <v>30</v>
+      <c r="D385">
+        <v>5</v>
       </c>
       <c r="E385" t="s">
         <v>1542</v>
@@ -16128,8 +16128,8 @@
       <c r="C386" t="s">
         <v>14</v>
       </c>
-      <c r="D386" t="s">
-        <v>30</v>
+      <c r="D386">
+        <v>5</v>
       </c>
       <c r="E386" t="s">
         <v>1543</v>
@@ -29796,7 +29796,7 @@
         <v>1879</v>
       </c>
       <c r="F985" t="s">
-        <v>19</v>
+        <v>1325</v>
       </c>
       <c r="G985">
         <v>53338</v>
